--- a/index.xlsx
+++ b/index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22A2BB-BC1D-4FCC-AED0-C343F6056969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7408C96-E4F3-4249-8A47-1DED64ECC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2730" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$295</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$A$364</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="397">
   <si>
     <t>group</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Multiple correspondence analysis</t>
   </si>
   <si>
-    <t>Moving average</t>
-  </si>
-  <si>
     <t>Bayesian inference</t>
   </si>
   <si>
@@ -605,15 +602,6 @@
     <t>Cross validation</t>
   </si>
   <si>
-    <t>Generalized estimating equations</t>
-  </si>
-  <si>
-    <t>Generalized linear mixed models</t>
-  </si>
-  <si>
-    <t>Generalized additive models</t>
-  </si>
-  <si>
     <t>Life tables</t>
   </si>
   <si>
@@ -782,9 +770,6 @@
     <t>Student t-test</t>
   </si>
   <si>
-    <t>Kruskall-Wallis</t>
-  </si>
-  <si>
     <t>Comparison of proportions</t>
   </si>
   <si>
@@ -920,9 +905,6 @@
     <t>Group Based Trajectory Modelling (GBTM)</t>
   </si>
   <si>
-    <t>Interrupted Time Series</t>
-  </si>
-  <si>
     <t>Feasibility study, Statistical power</t>
   </si>
   <si>
@@ -984,6 +966,249 @@
   </si>
   <si>
     <t>Sequence plot, Sankey diagram</t>
+  </si>
+  <si>
+    <t>IPCW</t>
+  </si>
+  <si>
+    <t>Multiple testing</t>
+  </si>
+  <si>
+    <t>Alpha correction</t>
+  </si>
+  <si>
+    <t>Bonferroni</t>
+  </si>
+  <si>
+    <t>Benjamini-Hochberg</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>Recoding</t>
+  </si>
+  <si>
+    <t>Dichotomize</t>
+  </si>
+  <si>
+    <t>Optimal threshold</t>
+  </si>
+  <si>
+    <t>Binda</t>
+  </si>
+  <si>
+    <t>Scoring</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>Normalisation</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Sqrt</t>
+  </si>
+  <si>
+    <t>Weighted Sum</t>
+  </si>
+  <si>
+    <t>Standardization</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>Confidence Interval</t>
+  </si>
+  <si>
+    <t>Wald</t>
+  </si>
+  <si>
+    <t>Sison Glaz</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Boot</t>
+  </si>
+  <si>
+    <t>Paired t-test</t>
+  </si>
+  <si>
+    <t>Wilcoxon signed rank test</t>
+  </si>
+  <si>
+    <t>Kruskall-Wallis test</t>
+  </si>
+  <si>
+    <t>Mann-Whitney U test</t>
+  </si>
+  <si>
+    <t>Shapiro test</t>
+  </si>
+  <si>
+    <t>Z-test</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Lag</t>
+  </si>
+  <si>
+    <t>Scatterplot</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Residuals testing</t>
+  </si>
+  <si>
+    <t>Schoenfeld test</t>
+  </si>
+  <si>
+    <t>Statistical tests, Residuals</t>
+  </si>
+  <si>
+    <t>Size effect</t>
+  </si>
+  <si>
+    <t>Cohen's d</t>
+  </si>
+  <si>
+    <t>Root Means Square Error (RMSE)</t>
+  </si>
+  <si>
+    <t>Ordinary Least Squares (OLS)</t>
+  </si>
+  <si>
+    <t>Generalized estimating equations (GEE)</t>
+  </si>
+  <si>
+    <t>Generalized linear mixed models (GLMM)</t>
+  </si>
+  <si>
+    <t>Generalized additive models (GAM)</t>
+  </si>
+  <si>
+    <t>Spline</t>
+  </si>
+  <si>
+    <t>LOcally Estimated Scatterplot Smoothing (LOESS)</t>
+  </si>
+  <si>
+    <t>k-NN</t>
+  </si>
+  <si>
+    <t>Inference type</t>
+  </si>
+  <si>
+    <t>Supervised</t>
+  </si>
+  <si>
+    <t>Unsupervised</t>
+  </si>
+  <si>
+    <t>Nonparametric</t>
+  </si>
+  <si>
+    <t>Parametric</t>
+  </si>
+  <si>
+    <t>Semi-parametric</t>
+  </si>
+  <si>
+    <t>k-NN, Nonparametric</t>
+  </si>
+  <si>
+    <t>Support Vector Machine (SVM</t>
+  </si>
+  <si>
+    <t>Large Language Models (LLM)</t>
+  </si>
+  <si>
+    <t>Boosting</t>
+  </si>
+  <si>
+    <t>Bagging</t>
+  </si>
+  <si>
+    <t>AdaBoost</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>Type of supervision</t>
+  </si>
+  <si>
+    <t>Dendrogram, Supervised</t>
+  </si>
+  <si>
+    <t>Threshold, Supervised</t>
+  </si>
+  <si>
+    <t>Supervised, Unsupervised</t>
+  </si>
+  <si>
+    <t>Interrupted Time Series (ITS)</t>
+  </si>
+  <si>
+    <t>O-E</t>
+  </si>
+  <si>
+    <t>Moving average (MA)</t>
+  </si>
+  <si>
+    <t>Autocorrelation plot</t>
+  </si>
+  <si>
+    <t>Dynamic time warping (DTW)</t>
+  </si>
+  <si>
+    <t>Clustering methods</t>
+  </si>
+  <si>
+    <t>Similarity</t>
+  </si>
+  <si>
+    <t>Partitions</t>
+  </si>
+  <si>
+    <t>Jaccard index</t>
+  </si>
+  <si>
+    <t>Manhattan distance</t>
+  </si>
+  <si>
+    <t>Silhouette</t>
+  </si>
+  <si>
+    <t>Calinski and Harabasz</t>
+  </si>
+  <si>
+    <t>Dunn index</t>
+  </si>
+  <si>
+    <t>Durbin Watson test</t>
+  </si>
+  <si>
+    <t>Bootstrapping, Proportion, Mean</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,27 +1606,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1416,39 +1641,39 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,27 +1681,27 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -1487,20 +1712,20 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -1508,12 +1733,12 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
@@ -1526,30 +1751,30 @@
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1557,25 +1782,25 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -1585,1620 +1810,2037 @@
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>294</v>
-      </c>
-      <c r="G38" t="s">
-        <v>314</v>
+      <c r="D38" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>288</v>
+      <c r="C39" t="s">
+        <v>289</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G43" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>298</v>
+      <c r="D46" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>296</v>
-      </c>
-      <c r="G47" t="s">
-        <v>99</v>
+      <c r="E47" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>87</v>
+      <c r="F49" t="s">
+        <v>292</v>
+      </c>
+      <c r="G49" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>94</v>
+      <c r="C50" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
-        <v>269</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>320</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s">
-        <v>320</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>283</v>
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>104</v>
+      <c r="D65" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>91</v>
+      <c r="D66" t="s">
+        <v>278</v>
+      </c>
+      <c r="G66" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>93</v>
+        <v>385</v>
+      </c>
+      <c r="G67" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" t="s">
-        <v>180</v>
+      <c r="B68" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>94</v>
+      <c r="C69" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>319</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
+      <c r="D70" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>92</v>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>95</v>
+      <c r="E73" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>320</v>
-      </c>
-      <c r="G74" t="s">
-        <v>321</v>
+      <c r="C74" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>314</v>
+      </c>
+      <c r="G77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E76" t="s">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>121</v>
+      </c>
+      <c r="G88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>334</v>
+      </c>
+      <c r="G97" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>335</v>
+      </c>
+      <c r="G98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>139</v>
+      </c>
+      <c r="G104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>140</v>
+      </c>
+      <c r="G105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>128</v>
+      </c>
+      <c r="G111" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="G79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>102</v>
-      </c>
-      <c r="G80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>122</v>
-      </c>
-      <c r="G81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>124</v>
-      </c>
-      <c r="G85" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>133</v>
+      </c>
+      <c r="G116" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>140</v>
-      </c>
-      <c r="G86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>141</v>
-      </c>
-      <c r="G87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>129</v>
-      </c>
-      <c r="G93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>130</v>
-      </c>
-      <c r="G94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>134</v>
-      </c>
-      <c r="G98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+      <c r="G151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+      <c r="G166" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>158</v>
-      </c>
-      <c r="G123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>155</v>
-      </c>
-      <c r="G133" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>245</v>
+      </c>
+      <c r="G170" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>51</v>
+      </c>
+      <c r="G176" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>348</v>
+      </c>
+      <c r="G180" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D141" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D143" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>171</v>
-      </c>
-      <c r="G146" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>249</v>
-      </c>
-      <c r="G150" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D156" t="s">
-        <v>52</v>
-      </c>
-      <c r="G156" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D157" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D158" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D160" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D161" t="s">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>352</v>
+      </c>
+      <c r="G184" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>353</v>
+      </c>
+      <c r="G185" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>357</v>
+      </c>
+      <c r="G186" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>302</v>
+      </c>
+      <c r="G187" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>199</v>
+      </c>
+      <c r="G188" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>208</v>
+      </c>
+      <c r="G193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>209</v>
+      </c>
+      <c r="G194" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>246</v>
+      </c>
+      <c r="G195" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D162" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>308</v>
-      </c>
-      <c r="G163" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>203</v>
-      </c>
-      <c r="G164" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D166" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D167" t="s">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
+      <c r="G198" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
         <v>212</v>
       </c>
-      <c r="G169" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D170" t="s">
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
         <v>213</v>
       </c>
-      <c r="G170" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>250</v>
-      </c>
-      <c r="G171" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D173" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E174" t="s">
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
         <v>215</v>
       </c>
-      <c r="G174" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E175" t="s">
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E176" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E177" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E178" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E179" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D180" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E181" t="s">
-        <v>189</v>
-      </c>
-      <c r="G181" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E182" t="s">
-        <v>218</v>
-      </c>
-      <c r="G182" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F183" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D184" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E185" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F186" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F187" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E188" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E189" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E190" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D192" t="s">
-        <v>246</v>
-      </c>
-      <c r="G192" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E193" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E194" t="s">
-        <v>248</v>
-      </c>
-      <c r="G194" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D196" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C197" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D198" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C200" t="s">
-        <v>27</v>
-      </c>
-      <c r="G200" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
-        <v>179</v>
-      </c>
-      <c r="G201" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D202" t="s">
-        <v>185</v>
-      </c>
-      <c r="G202" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D203" t="s">
-        <v>186</v>
-      </c>
-      <c r="G203" t="s">
-        <v>141</v>
+      <c r="E203" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>187</v>
-      </c>
-      <c r="G204" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C205" t="s">
-        <v>180</v>
+      <c r="E205" t="s">
+        <v>188</v>
       </c>
       <c r="G205" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D206" t="s">
-        <v>181</v>
+      <c r="E206" t="s">
+        <v>214</v>
       </c>
       <c r="G206" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D207" t="s">
-        <v>182</v>
-      </c>
-      <c r="G207" t="s">
-        <v>131</v>
+      <c r="F207" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>184</v>
-      </c>
-      <c r="G208" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D209" t="s">
-        <v>183</v>
-      </c>
-      <c r="G209" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
-        <v>195</v>
-      </c>
-      <c r="G210" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C211" t="s">
-        <v>196</v>
-      </c>
-      <c r="G211" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C212" t="s">
-        <v>197</v>
-      </c>
-      <c r="G212" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
-        <v>30</v>
-      </c>
-      <c r="G213" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C214" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D215" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E216" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="209" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="211" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="216" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>242</v>
+      </c>
+      <c r="G216" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="217" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D219" t="s">
-        <v>198</v>
+        <v>316</v>
+      </c>
+      <c r="G218" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="219" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>244</v>
       </c>
       <c r="G219" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D220" t="s">
-        <v>222</v>
-      </c>
-      <c r="G220" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>199</v>
-      </c>
-      <c r="G221" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D222" t="s">
-        <v>272</v>
-      </c>
-      <c r="G222" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>281</v>
-      </c>
-      <c r="G223" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
-        <v>239</v>
+        <v>351</v>
+      </c>
+      <c r="G224" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D225" t="s">
-        <v>200</v>
+      <c r="B225" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D226" t="s">
-        <v>201</v>
+      <c r="C226" t="s">
+        <v>27</v>
+      </c>
+      <c r="G226" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
-        <v>33</v>
+      <c r="D228" t="s">
+        <v>363</v>
+      </c>
+      <c r="G228" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
-        <v>238</v>
+        <v>178</v>
+      </c>
+      <c r="G229" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="G230" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="G231" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="G232" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D233" t="s">
-        <v>230</v>
+      <c r="C233" t="s">
+        <v>179</v>
       </c>
       <c r="G233" t="s">
-        <v>282</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="G234" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="G235" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
-        <v>231</v>
+      <c r="D236" t="s">
+        <v>183</v>
       </c>
       <c r="G236" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>232</v>
+        <v>182</v>
+      </c>
+      <c r="G237" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D238" t="s">
-        <v>233</v>
+      <c r="C238" t="s">
+        <v>359</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E239" t="s">
-        <v>234</v>
+      <c r="C239" t="s">
+        <v>360</v>
+      </c>
+      <c r="G239" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
+        <v>361</v>
+      </c>
+      <c r="G240" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>30</v>
+      </c>
+      <c r="G242" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>194</v>
+      </c>
+      <c r="G248" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>218</v>
+      </c>
+      <c r="G249" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>195</v>
+      </c>
+      <c r="G250" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>267</v>
+      </c>
+      <c r="G251" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>276</v>
+      </c>
+      <c r="G252" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D241" t="s">
-        <v>38</v>
-      </c>
-      <c r="G241" t="s">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
+        <v>223</v>
+      </c>
+      <c r="G259" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D260" t="s">
+        <v>224</v>
+      </c>
+      <c r="G260" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D261" t="s">
+        <v>225</v>
+      </c>
+      <c r="G261" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>226</v>
+      </c>
+      <c r="G262" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D263" t="s">
+        <v>294</v>
+      </c>
+      <c r="G263" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D264" t="s">
+        <v>382</v>
+      </c>
+      <c r="G264" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D265" t="s">
+        <v>386</v>
+      </c>
+      <c r="G265" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>227</v>
+      </c>
+      <c r="G266" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D267" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D268" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D269" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D272" t="s">
+        <v>384</v>
+      </c>
+      <c r="G272" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D242" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D243" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D244" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E245" t="s">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D273" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D274" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>395</v>
+      </c>
+      <c r="G276" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D277" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C248" t="s">
-        <v>225</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="G280" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>221</v>
+      </c>
+      <c r="G281" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>35</v>
+      </c>
+      <c r="G282" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C249" t="s">
-        <v>35</v>
-      </c>
-      <c r="G249" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C250" t="s">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
         <v>36</v>
       </c>
-      <c r="G250" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C251" t="s">
+      <c r="G283" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
         <v>37</v>
-      </c>
-      <c r="G251" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C254" t="s">
-        <v>265</v>
-      </c>
-      <c r="G254" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C255" t="s">
-        <v>266</v>
-      </c>
-      <c r="G255" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C256" t="s">
-        <v>284</v>
-      </c>
-      <c r="G256" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C257" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C261" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C262" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C263" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C266" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C267" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C268" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C269" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C271" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D272" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D273" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D274" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D275" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D276" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D277" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C278" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D279" t="s">
-        <v>252</v>
-      </c>
-      <c r="G279" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E280" t="s">
-        <v>253</v>
-      </c>
-      <c r="G280" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E281" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E282" t="s">
-        <v>257</v>
-      </c>
-      <c r="G282" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E283" t="s">
-        <v>258</v>
-      </c>
-      <c r="G283" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D284" t="s">
-        <v>255</v>
       </c>
       <c r="G284" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E285" t="s">
-        <v>256</v>
-      </c>
-      <c r="G285" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E286" t="s">
-        <v>259</v>
-      </c>
-      <c r="G286" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E287" t="s">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E293" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>364</v>
+      </c>
+      <c r="G297" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>279</v>
+      </c>
+      <c r="G298" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>321</v>
+      </c>
+      <c r="G299" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>280</v>
+      </c>
+      <c r="G300" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>372</v>
+      </c>
+      <c r="G301" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D302" t="s">
+        <v>262</v>
+      </c>
+      <c r="G302" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>374</v>
+      </c>
+      <c r="G303" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
         <v>260</v>
       </c>
-      <c r="G287" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D308" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>60</v>
+      </c>
+      <c r="G311" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>338</v>
+      </c>
+      <c r="G327" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>339</v>
+      </c>
+      <c r="G328" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>340</v>
+      </c>
+      <c r="G329" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D330" t="s">
+        <v>341</v>
+      </c>
+      <c r="G330" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D332" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D334" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D336" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D337" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="338" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D338" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="339" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="340" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F340" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="341" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F341" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="342" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="343" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>248</v>
+      </c>
+      <c r="G345" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E346" t="s">
+        <v>249</v>
+      </c>
+      <c r="G346" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="347" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F347" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="348" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="349" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="350" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E350" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="351" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E351" t="s">
+        <v>252</v>
+      </c>
+      <c r="G351" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F352" t="s">
+        <v>253</v>
+      </c>
+      <c r="G352" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D353" t="s">
+        <v>250</v>
+      </c>
+      <c r="G353" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E354" t="s">
+        <v>251</v>
+      </c>
+      <c r="G354" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F355" t="s">
+        <v>254</v>
+      </c>
+      <c r="G355" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E356" t="s">
+        <v>255</v>
+      </c>
+      <c r="G356" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C289" t="s">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>40</v>
+      </c>
+      <c r="G359" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C290" t="s">
-        <v>41</v>
-      </c>
-      <c r="G290" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C291" t="s">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C292" t="s">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C293" t="s">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C294" t="s">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C295" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A295" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A364" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>